--- a/SoSe_2022/Semester_overview.xlsx
+++ b/SoSe_2022/Semester_overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\sciebo\Advanced R for Econometricians\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\OEK_ARE\SoSe_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF72AC2-606B-46EE-9DD1-8A083100939F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F07B89-DFD6-4729-B6B8-EB46B0C7E778}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{8D9B8771-3A97-47B7-9119-3C46B2B9CF75}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,14 +676,14 @@
       <c r="B8" s="1">
         <v>44697</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>44704</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>44711</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
@@ -747,7 +747,7 @@
         <v>44725</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
@@ -764,7 +764,7 @@
         <v>44732</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>44739</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>44746</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
@@ -815,13 +815,13 @@
         <v>44753</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
